--- a/results/mp/deberta/corona/confidence/126/stop-words-desired-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-desired-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
   <si>
     <t>anchor score</t>
   </si>
@@ -64,142 +64,142 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>hope</t>
@@ -724,10 +724,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -856,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -906,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -956,7 +956,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1006,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7">
         <v>0.967741935483871</v>
@@ -1056,7 +1056,7 @@
         <v>101</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8">
         <v>0.9655172413793104</v>
@@ -1106,7 +1106,7 @@
         <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9">
         <v>0.9555555555555556</v>
@@ -1156,7 +1156,7 @@
         <v>47</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10">
         <v>0.9444444444444444</v>
@@ -1185,28 +1185,28 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.119047619047619</v>
+        <v>0.1065891472868217</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D11">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="E11">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>111</v>
+        <v>461</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11">
         <v>0.9444444444444444</v>
@@ -1231,32 +1231,8 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1065891472868217</v>
-      </c>
-      <c r="C12">
-        <v>55</v>
-      </c>
-      <c r="D12">
-        <v>55</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>461</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K12">
         <v>0.9145299145299145</v>
@@ -1282,7 +1258,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13">
         <v>0.9090909090909091</v>
@@ -1308,7 +1284,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14">
         <v>0.8990825688073395</v>
@@ -1334,7 +1310,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15">
         <v>0.8976377952755905</v>
@@ -1360,7 +1336,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16">
         <v>0.8936170212765957</v>
@@ -1386,7 +1362,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17">
         <v>0.8888888888888888</v>
@@ -1412,7 +1388,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18">
         <v>0.8823529411764706</v>
@@ -1438,7 +1414,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19">
         <v>0.8666666666666667</v>
@@ -1464,7 +1440,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20">
         <v>0.8666666666666667</v>
@@ -1490,7 +1466,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21">
         <v>0.85</v>
@@ -1516,7 +1492,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22">
         <v>0.8461538461538461</v>
@@ -1542,7 +1518,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23">
         <v>0.8421052631578947</v>
@@ -1568,7 +1544,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
         <v>0.84</v>
@@ -1594,7 +1570,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25">
         <v>0.8260869565217391</v>
@@ -1620,7 +1596,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
         <v>0.8226950354609929</v>
@@ -1646,7 +1622,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
         <v>0.8141025641025641</v>
@@ -1672,7 +1648,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>0.8095238095238095</v>
@@ -1698,7 +1674,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
         <v>0.7777777777777778</v>
@@ -1724,7 +1700,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>0.7777777777777778</v>
@@ -1750,85 +1726,85 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.7665198237885462</v>
+        <v>0.75</v>
       </c>
       <c r="L31">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.75</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.7317073170731707</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="N33">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
         <v>0.7272727272727273</v>
@@ -1854,7 +1830,7 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35">
         <v>0.7222222222222222</v>
@@ -1880,7 +1856,7 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36">
         <v>0.6888888888888889</v>
@@ -1906,7 +1882,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37">
         <v>0.6862745098039216</v>
@@ -1932,7 +1908,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K38">
         <v>0.6842105263157895</v>
@@ -1958,7 +1934,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39">
         <v>0.6818181818181818</v>
@@ -1984,7 +1960,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40">
         <v>0.6777777777777778</v>
@@ -2010,28 +1986,28 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.6584615384615384</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L41">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="N41">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2039,25 +2015,25 @@
         <v>57</v>
       </c>
       <c r="K42">
-        <v>0.6571428571428571</v>
+        <v>0.65</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2065,25 +2041,25 @@
         <v>58</v>
       </c>
       <c r="K43">
-        <v>0.65</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L43">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>250</v>
+        <v>15</v>
       </c>
       <c r="N43">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="O43">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>133</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2097,13 +2073,13 @@
         <v>14</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N44">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="O44">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
@@ -2117,25 +2093,25 @@
         <v>60</v>
       </c>
       <c r="K45">
-        <v>0.6363636363636364</v>
+        <v>0.6328671328671329</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="N45">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="O45">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>8</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2143,25 +2119,25 @@
         <v>61</v>
       </c>
       <c r="K46">
-        <v>0.6328671328671329</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L46">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="M46">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="N46">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="10:17">
